--- a/Complex Retirement.xlsx
+++ b/Complex Retirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marconunez/Documents/Financial Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52794689-3AEE-9E4B-934B-15D906C1677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16729286-BA8E-2148-8321-F3C9F16CA774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{6C2D7166-DF05-E94D-BB83-DCCAD6141E39}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6C2D7166-DF05-E94D-BB83-DCCAD6141E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <sheet name="Wealth" sheetId="3" r:id="rId4"/>
     <sheet name="Retirement" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Wealth!$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Wealth!$A$9:$A$48</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Wealth!$D$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Wealth!$D$9:$D$48</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Wealth!$A$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Wealth!$A$9:$A$48</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Wealth!$D$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Wealth!$D$9:$D$48</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -257,6 +267,3311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Salary!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Salary!$A$10:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Salary!$G$10:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>61200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63672.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64945.929599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76181.575420799985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77705.206929216001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79259.311067800299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80844.497289156323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82461.387234939451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96727.207226583952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98661.751371115621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100634.98639853795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102647.68612650871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104700.6398490389</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122813.85054292256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125270.12755378104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127775.53010485666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130331.04070695378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132937.66152109287</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155935.87696424194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159054.59450352675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162235.68639359731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165480.40012146923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168790.00812389862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197990.67952933308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201950.49311991976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>205989.50298231811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210109.29304196453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214311.47890280379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251387.36475298885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256415.11204804858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261543.41428900958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>266774.28257478977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272109.76822628558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>319184.75812943286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>325568.45329202153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332079.82235786197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338721.41880501929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345495.84718111949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>405266.6287434533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-085A-B441-8A35-E1C417B9C8D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="361068976"/>
+        <c:axId val="361070624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361068976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361070624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361070624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361068976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wealth!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wealth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wealth!$A$9:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wealth!$D$9:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49172.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67867.785900000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90306.569050199992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114248.19923501399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139775.43696371478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166975.3331341896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195939.44659963396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229918.22073626166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266079.56961585366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304542.29469628085</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345431.33096272207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388878.05747311789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>439025.42298250442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>492294.22602007492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>548852.81984729285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>608878.22101639595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>672556.54744748899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>745168.3440609239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>822190.40988985181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>903858.85198274371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>990421.89461224817</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1082140.4913738354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1185745.1858248606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1295520.0683960835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1411793.4475614673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1534910.4432000318</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1665233.8350857343</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1811342.3680282685</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1966013.2644416941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2129699.7812360311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2302878.3409415302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2486049.7000451782</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2690148.3745797952</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2906047.9066317906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3134370.2575528454</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3375769.1251317426</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3630931.5431836094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3913794.7775286534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC4E-EB4B-9A65-C99B6DED828B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1873128192"/>
+        <c:axId val="361098272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1873128192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361098272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361098272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873128192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Salary!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Salary!$A$10:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Salary!$G$10:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>61200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63672.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64945.929599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76181.575420799985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77705.206929216001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79259.311067800299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80844.497289156323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82461.387234939451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96727.207226583952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98661.751371115621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100634.98639853795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102647.68612650871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104700.6398490389</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122813.85054292256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125270.12755378104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127775.53010485666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130331.04070695378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132937.66152109287</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155935.87696424194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159054.59450352675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162235.68639359731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165480.40012146923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168790.00812389862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197990.67952933308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201950.49311991976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>205989.50298231811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210109.29304196453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214311.47890280379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251387.36475298885</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256415.11204804858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261543.41428900958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>266774.28257478977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272109.76822628558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>319184.75812943286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>325568.45329202153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>332079.82235786197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338721.41880501929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345495.84718111949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>405266.6287434533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90AF-D54E-BD8E-BF7BCA5EE450}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1253487456"/>
+        <c:axId val="1253969264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1253487456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253969264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1253969264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253487456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B14F3C-6516-D445-A173-189D559E890E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC8E884-2B3B-924F-A850-76DABC885BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3E6396-2F0B-40DA-4602-47DAFD301BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +3876,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,6 +4001,7 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -693,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D6780-6FCF-1E4D-8C33-661D9A879547}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31894965-763B-1F45-A068-CC1AC0288793}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2019,6 +5335,7 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2026,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF408B4-309A-C447-91E0-198F12B63BA9}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2836,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E28C6B-FB87-B849-B7F6-0B07897859D1}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Complex Retirement.xlsx
+++ b/Complex Retirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marconunez/Documents/Financial Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16729286-BA8E-2148-8321-F3C9F16CA774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CB7CE7-97B5-C74E-8073-A4A6FBFD2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6C2D7166-DF05-E94D-BB83-DCCAD6141E39}"/>
   </bookViews>
@@ -3877,7 +3877,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
